--- a/variables.xlsx
+++ b/variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\DataScienceProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2E92F8-0FFA-46CF-A0ED-53DAE8092AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19223418-EDB5-46F8-994C-4653BED87A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1335" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="243">
   <si>
     <t>Type</t>
   </si>
@@ -820,7 +820,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,6 +841,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -926,19 +933,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,102 +987,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1225,6 +1137,102 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1239,19 +1247,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{10153F33-F39D-4CA4-BCE2-F251EF054CEB}" name="Table5" displayName="Table5" ref="C3:G84" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{10153F33-F39D-4CA4-BCE2-F251EF054CEB}" name="Table5" displayName="Table5" ref="C3:G84" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="C3:G84" xr:uid="{10153F33-F39D-4CA4-BCE2-F251EF054CEB}">
     <filterColumn colId="1">
       <filters>
-        <filter val="nom"/>
+        <filter val="disc"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{982CD010-5E4B-4598-98EE-32FF1BD2A636}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A016D336-8F49-497D-BDD7-9429D8C20311}" name="Type" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DE68B187-9B8A-404B-BA39-41F6F3A2F939}" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{80D4B17F-EAFE-47E1-B6BC-A60BFF4DCD85}" name="1st values" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{982CD010-5E4B-4598-98EE-32FF1BD2A636}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A016D336-8F49-497D-BDD7-9429D8C20311}" name="Type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DE68B187-9B8A-404B-BA39-41F6F3A2F939}" name="Description" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{80D4B17F-EAFE-47E1-B6BC-A60BFF4DCD85}" name="1st values" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{1E56A007-BC3E-4D80-9E7C-7FAE9CF00D4F}" name="NameWithComa" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE("""", Table5[[#This Row],[Name]], """", ",")</calculatedColumnFormula>
     </tableColumn>
@@ -1523,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G84"/>
+  <dimension ref="C3:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G83"/>
+      <selection activeCell="G23" sqref="G23:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,7 +1583,7 @@
         <v>"Id",</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1593,7 +1601,7 @@
         <v>"MSSubClass",</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1647,7 +1655,7 @@
         <v>"LotArea",</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>"Street",</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1701,7 +1709,7 @@
         <v>"LotShape",</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1737,7 +1745,7 @@
         <v>"Utilities",</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1773,7 +1781,7 @@
         <v>"LandSlope",</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>"Neighborhood",</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1809,7 +1817,7 @@
         <v>"Condition1",</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1827,7 +1835,7 @@
         <v>"Condition2",</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1845,7 +1853,7 @@
         <v>"BldgType",</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1899,7 +1907,7 @@
         <v>"OverallCond",</v>
       </c>
     </row>
-    <row r="23" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1917,7 +1925,7 @@
         <v>"YearBuilt",</v>
       </c>
     </row>
-    <row r="24" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>"YearRemodAdd",</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1953,7 +1961,7 @@
         <v>"RoofStyle",</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>60</v>
       </c>
@@ -1971,7 +1979,7 @@
         <v>"RoofMatl",</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
@@ -1989,7 +1997,7 @@
         <v>"Exterior1st",</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>64</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>"Exterior2nd",</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>66</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>"ExterCond",</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>75</v>
       </c>
@@ -2259,7 +2267,7 @@
         <v>"TotalBsmtSF",</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
         <v>99</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>"HeatingQC",</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
         <v>103</v>
       </c>
@@ -2403,7 +2411,7 @@
         <v>"GrLivArea",</v>
       </c>
     </row>
-    <row r="51" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
         <v>119</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>"BsmtFullBath",</v>
       </c>
     </row>
-    <row r="52" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>122</v>
       </c>
@@ -2439,7 +2447,7 @@
         <v>"BsmtHalfBath",</v>
       </c>
     </row>
-    <row r="53" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>125</v>
       </c>
@@ -2457,7 +2465,7 @@
         <v>"FullBath",</v>
       </c>
     </row>
-    <row r="54" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>128</v>
       </c>
@@ -2475,7 +2483,7 @@
         <v>"HalfBath",</v>
       </c>
     </row>
-    <row r="55" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
         <v>131</v>
       </c>
@@ -2493,7 +2501,7 @@
         <v>"Bedroom",</v>
       </c>
     </row>
-    <row r="56" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>134</v>
       </c>
@@ -2529,7 +2537,7 @@
         <v>"KitchenQual",</v>
       </c>
     </row>
-    <row r="58" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>139</v>
       </c>
@@ -2565,7 +2573,7 @@
         <v>"Functional",</v>
       </c>
     </row>
-    <row r="60" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>144</v>
       </c>
@@ -2601,7 +2609,7 @@
         <v>"FireplaceQu",</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>150</v>
       </c>
@@ -2619,7 +2627,7 @@
         <v>"GarageType",</v>
       </c>
     </row>
-    <row r="63" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
         <v>152</v>
       </c>
@@ -2655,7 +2663,7 @@
         <v>"GarageFinish",</v>
       </c>
     </row>
-    <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
         <v>157</v>
       </c>
@@ -2889,7 +2897,7 @@
         <v>"Fence",</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>188</v>
       </c>
@@ -2907,7 +2915,7 @@
         <v>"MiscFeature",</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
         <v>190</v>
       </c>
@@ -2943,7 +2951,7 @@
         <v>"MoSold",</v>
       </c>
     </row>
-    <row r="81" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
         <v>196</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>"YrSold",</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>199</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>"SaleType",</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
         <v>239</v>
       </c>
@@ -3013,6 +3021,11 @@
       <c r="G84" s="4" t="str">
         <f>CONCATENATE("""", Table5[[#This Row],[Name]], """", ",")</f>
         <v>"SalePrice",</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C92" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
